--- a/planning/gantt.xlsx
+++ b/planning/gantt.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t xml:space="preserve">Nom:</t>
   </si>
@@ -64,6 +64,9 @@
     <t xml:space="preserve">Rencontre client (1 fois, puis par mail)</t>
   </si>
   <si>
+    <t xml:space="preserve">Blocus</t>
+  </si>
+  <si>
     <t xml:space="preserve">Analyse</t>
   </si>
   <si>
@@ -98,7 +101,7 @@
     <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
     <numFmt numFmtId="167" formatCode="0.00"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -167,8 +170,15 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="24"/>
+      <color rgb="FFC9211E"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -215,6 +225,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
         <bgColor rgb="FFDCE6F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3465A4"/>
+        <bgColor rgb="FF3366FF"/>
       </patternFill>
     </fill>
   </fills>
@@ -436,7 +452,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -531,6 +547,10 @@
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="9" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -615,13 +635,13 @@
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF3465A4"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FFC9211E"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
@@ -637,11 +657,11 @@
   </sheetPr>
   <dimension ref="B2:AH1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L29" activeCellId="0" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.71"/>
@@ -719,7 +739,7 @@
       </c>
       <c r="G7" s="5" t="n">
         <f aca="false">SUM(G11:G34)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H7" s="6" t="n">
         <f aca="false">SUM(H11:H34)</f>
@@ -735,7 +755,7 @@
       </c>
       <c r="K7" s="6" t="n">
         <f aca="false">SUM(K11:K34)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L7" s="6" t="n">
         <f aca="false">SUM(L11:L34)</f>
@@ -751,11 +771,11 @@
       </c>
       <c r="O7" s="6" t="n">
         <f aca="false">SUM(O11:O34)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P7" s="6" t="n">
         <f aca="false">SUM(P11:P34)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q7" s="7" t="n">
         <f aca="false">SUM(Q11:Q34)</f>
@@ -783,27 +803,27 @@
       </c>
       <c r="W7" s="7" t="n">
         <f aca="false">SUM(W11:W34)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="X7" s="7" t="n">
         <f aca="false">SUM(X11:X34)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Y7" s="7" t="n">
         <f aca="false">SUM(Y11:Y34)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Z7" s="7" t="n">
         <f aca="false">SUM(Z11:Z34)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AA7" s="7" t="n">
         <f aca="false">SUM(AA11:AA34)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AB7" s="7" t="n">
         <f aca="false">SUM(AB11:AB34)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC7" s="7" t="n">
         <f aca="false">SUM(AC11:AC34)</f>
@@ -830,7 +850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="8" t="s">
         <v>9</v>
       </c>
@@ -838,127 +858,127 @@
         <v>10</v>
       </c>
       <c r="D8" s="10" t="n">
-        <v>43723</v>
+        <v>44088</v>
       </c>
       <c r="E8" s="11" t="n">
         <f aca="false">D8+7</f>
-        <v>43730</v>
+        <v>44095</v>
       </c>
       <c r="F8" s="11" t="n">
         <f aca="false">E8+7</f>
-        <v>43737</v>
+        <v>44102</v>
       </c>
       <c r="G8" s="11" t="n">
         <f aca="false">F8+7</f>
-        <v>43744</v>
+        <v>44109</v>
       </c>
       <c r="H8" s="11" t="n">
         <f aca="false">G8+7</f>
-        <v>43751</v>
+        <v>44116</v>
       </c>
       <c r="I8" s="11" t="n">
         <f aca="false">H8+7</f>
-        <v>43758</v>
+        <v>44123</v>
       </c>
       <c r="J8" s="11" t="n">
         <f aca="false">I8+7</f>
-        <v>43765</v>
+        <v>44130</v>
       </c>
       <c r="K8" s="11" t="n">
         <f aca="false">J8+7</f>
-        <v>43772</v>
+        <v>44137</v>
       </c>
       <c r="L8" s="11" t="n">
         <f aca="false">K8+7</f>
-        <v>43779</v>
+        <v>44144</v>
       </c>
       <c r="M8" s="11" t="n">
         <f aca="false">L8+7</f>
-        <v>43786</v>
+        <v>44151</v>
       </c>
       <c r="N8" s="11" t="n">
         <f aca="false">M8+7</f>
-        <v>43793</v>
+        <v>44158</v>
       </c>
       <c r="O8" s="11" t="n">
         <f aca="false">N8+7</f>
-        <v>43800</v>
+        <v>44165</v>
       </c>
       <c r="P8" s="11" t="n">
         <f aca="false">O8+7</f>
-        <v>43807</v>
+        <v>44172</v>
       </c>
       <c r="Q8" s="12" t="n">
         <f aca="false">P8+7</f>
-        <v>43814</v>
+        <v>44179</v>
       </c>
       <c r="R8" s="12" t="n">
         <f aca="false">Q8+7</f>
-        <v>43821</v>
+        <v>44186</v>
       </c>
       <c r="S8" s="12" t="n">
         <f aca="false">R8+7</f>
-        <v>43828</v>
+        <v>44193</v>
       </c>
       <c r="T8" s="12" t="n">
         <f aca="false">S8+7</f>
-        <v>43835</v>
+        <v>44200</v>
       </c>
       <c r="U8" s="12" t="n">
         <f aca="false">T8+7</f>
-        <v>43842</v>
+        <v>44207</v>
       </c>
       <c r="V8" s="12" t="n">
         <f aca="false">U8+7</f>
-        <v>43849</v>
+        <v>44214</v>
       </c>
       <c r="W8" s="12" t="n">
         <f aca="false">V8+7</f>
-        <v>43856</v>
+        <v>44221</v>
       </c>
       <c r="X8" s="12" t="n">
         <f aca="false">W8+7</f>
-        <v>43863</v>
+        <v>44228</v>
       </c>
       <c r="Y8" s="12" t="n">
         <f aca="false">X8+7</f>
-        <v>43870</v>
+        <v>44235</v>
       </c>
       <c r="Z8" s="12" t="n">
         <f aca="false">Y8+7</f>
-        <v>43877</v>
+        <v>44242</v>
       </c>
       <c r="AA8" s="12" t="n">
         <f aca="false">Z8+7</f>
-        <v>43884</v>
+        <v>44249</v>
       </c>
       <c r="AB8" s="12" t="n">
         <f aca="false">AA8+7</f>
-        <v>43891</v>
+        <v>44256</v>
       </c>
       <c r="AC8" s="12" t="n">
         <f aca="false">AB8+7</f>
-        <v>43898</v>
+        <v>44263</v>
       </c>
       <c r="AD8" s="12" t="n">
         <f aca="false">AC8+7</f>
-        <v>43905</v>
+        <v>44270</v>
       </c>
       <c r="AE8" s="12" t="n">
         <f aca="false">AD8+7</f>
-        <v>43912</v>
+        <v>44277</v>
       </c>
       <c r="AF8" s="12" t="n">
         <f aca="false">AE8+7</f>
-        <v>43919</v>
+        <v>44284</v>
       </c>
       <c r="AG8" s="12" t="n">
         <f aca="false">AF8+7</f>
-        <v>43926</v>
+        <v>44291</v>
       </c>
       <c r="AH8" s="12" t="n">
         <f aca="false">AG8+7</f>
-        <v>43933</v>
+        <v>44298</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -967,7 +987,7 @@
       </c>
       <c r="C9" s="14" t="n">
         <f aca="false">SUM(C10:C44)</f>
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="D9" s="15" t="n">
         <f aca="false">SUM(D10:D44)</f>
@@ -983,7 +1003,7 @@
       </c>
       <c r="G9" s="15" t="n">
         <f aca="false">SUM(G10:G44)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H9" s="15" t="n">
         <f aca="false">SUM(H10:H44)</f>
@@ -999,7 +1019,7 @@
       </c>
       <c r="K9" s="15" t="n">
         <f aca="false">SUM(K10:K44)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L9" s="15" t="n">
         <f aca="false">SUM(L10:L44)</f>
@@ -1015,11 +1035,11 @@
       </c>
       <c r="O9" s="15" t="n">
         <f aca="false">SUM(O10:O44)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P9" s="15" t="n">
         <f aca="false">SUM(P10:P44)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q9" s="15" t="n">
         <f aca="false">SUM(Q10:Q44)</f>
@@ -1047,27 +1067,27 @@
       </c>
       <c r="W9" s="15" t="n">
         <f aca="false">SUM(W10:W44)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="X9" s="15" t="n">
         <f aca="false">SUM(X10:X44)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Y9" s="15" t="n">
         <f aca="false">SUM(Y10:Y44)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Z9" s="15" t="n">
         <f aca="false">SUM(Z10:Z44)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AA9" s="15" t="n">
         <f aca="false">SUM(AA10:AA44)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AB9" s="15" t="n">
         <f aca="false">SUM(AB10:AB44)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC9" s="15" t="n">
         <f aca="false">SUM(AC10:AC44)</f>
@@ -1100,12 +1120,14 @@
       </c>
       <c r="C10" s="17" t="n">
         <f aca="false">SUM(D10:AH10)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="19"/>
       <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
+      <c r="G10" s="19" t="n">
+        <v>2</v>
+      </c>
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
       <c r="J10" s="19"/>
@@ -1140,7 +1162,7 @@
       </c>
       <c r="C11" s="17" t="n">
         <f aca="false">SUM(D11:AH11)</f>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="23"/>
@@ -1155,34 +1177,44 @@
       <c r="L11" s="23"/>
       <c r="M11" s="23"/>
       <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
+      <c r="O11" s="23" t="n">
+        <v>4</v>
+      </c>
       <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
-      <c r="S11" s="23"/>
-      <c r="T11" s="23"/>
-      <c r="U11" s="23"/>
-      <c r="V11" s="23"/>
+      <c r="Q11" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="24"/>
+      <c r="V11" s="24"/>
       <c r="W11" s="23"/>
-      <c r="X11" s="23"/>
-      <c r="Y11" s="23"/>
-      <c r="Z11" s="24"/>
-      <c r="AA11" s="24"/>
-      <c r="AB11" s="24"/>
-      <c r="AC11" s="24"/>
-      <c r="AD11" s="24"/>
-      <c r="AE11" s="24"/>
-      <c r="AF11" s="24"/>
-      <c r="AG11" s="24"/>
-      <c r="AH11" s="24"/>
+      <c r="X11" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y11" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z11" s="25" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA11" s="25"/>
+      <c r="AB11" s="25"/>
+      <c r="AC11" s="25"/>
+      <c r="AD11" s="25"/>
+      <c r="AE11" s="25"/>
+      <c r="AF11" s="25"/>
+      <c r="AG11" s="25"/>
+      <c r="AH11" s="25"/>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" s="17" t="n">
         <f aca="false">SUM(D12:AH12)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="23"/>
@@ -1199,28 +1231,30 @@
       <c r="N12" s="23"/>
       <c r="O12" s="23"/>
       <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="23"/>
-      <c r="U12" s="23"/>
-      <c r="V12" s="23"/>
-      <c r="W12" s="23"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="24"/>
+      <c r="U12" s="24"/>
+      <c r="V12" s="24"/>
+      <c r="W12" s="23" t="n">
+        <v>2</v>
+      </c>
       <c r="X12" s="23"/>
       <c r="Y12" s="23"/>
-      <c r="Z12" s="24"/>
-      <c r="AA12" s="24"/>
-      <c r="AB12" s="24"/>
-      <c r="AC12" s="24"/>
-      <c r="AD12" s="24"/>
-      <c r="AE12" s="24"/>
-      <c r="AF12" s="24"/>
-      <c r="AG12" s="24"/>
-      <c r="AH12" s="24"/>
+      <c r="Z12" s="25"/>
+      <c r="AA12" s="25"/>
+      <c r="AB12" s="25"/>
+      <c r="AC12" s="25"/>
+      <c r="AD12" s="25"/>
+      <c r="AE12" s="25"/>
+      <c r="AF12" s="25"/>
+      <c r="AG12" s="25"/>
+      <c r="AH12" s="25"/>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" s="17" t="n">
         <f aca="false">SUM(D13:AH13)</f>
@@ -1241,32 +1275,32 @@
       <c r="N13" s="23"/>
       <c r="O13" s="23"/>
       <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="23"/>
-      <c r="T13" s="23"/>
-      <c r="U13" s="23"/>
-      <c r="V13" s="23"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="24"/>
+      <c r="U13" s="24"/>
+      <c r="V13" s="24"/>
       <c r="W13" s="23"/>
       <c r="X13" s="23"/>
       <c r="Y13" s="23"/>
-      <c r="Z13" s="24"/>
-      <c r="AA13" s="24"/>
-      <c r="AB13" s="24"/>
-      <c r="AC13" s="24"/>
-      <c r="AD13" s="24"/>
-      <c r="AE13" s="24"/>
-      <c r="AF13" s="24"/>
-      <c r="AG13" s="24"/>
-      <c r="AH13" s="24"/>
+      <c r="Z13" s="25"/>
+      <c r="AA13" s="25"/>
+      <c r="AB13" s="25"/>
+      <c r="AC13" s="25"/>
+      <c r="AD13" s="25"/>
+      <c r="AE13" s="25"/>
+      <c r="AF13" s="25"/>
+      <c r="AG13" s="25"/>
+      <c r="AH13" s="25"/>
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14" s="17" t="n">
         <f aca="false">SUM(D14:AH14)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="23"/>
@@ -1281,34 +1315,38 @@
         <v>4</v>
       </c>
       <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
+      <c r="O14" s="23" t="n">
+        <v>3</v>
+      </c>
       <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="23"/>
-      <c r="U14" s="23"/>
-      <c r="V14" s="23"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="24"/>
+      <c r="T14" s="24"/>
+      <c r="U14" s="24"/>
+      <c r="V14" s="24"/>
       <c r="W14" s="23"/>
       <c r="X14" s="23"/>
-      <c r="Y14" s="23"/>
-      <c r="Z14" s="24"/>
-      <c r="AA14" s="24"/>
-      <c r="AB14" s="24"/>
-      <c r="AC14" s="24"/>
-      <c r="AD14" s="24"/>
-      <c r="AE14" s="24"/>
-      <c r="AF14" s="24"/>
-      <c r="AG14" s="24"/>
-      <c r="AH14" s="24"/>
+      <c r="Y14" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="25"/>
+      <c r="AA14" s="25"/>
+      <c r="AB14" s="25"/>
+      <c r="AC14" s="25"/>
+      <c r="AD14" s="25"/>
+      <c r="AE14" s="25"/>
+      <c r="AF14" s="25"/>
+      <c r="AG14" s="25"/>
+      <c r="AH14" s="25"/>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" s="17" t="n">
         <f aca="false">SUM(D15:AH15)</f>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="23"/>
@@ -1333,32 +1371,36 @@
       <c r="N15" s="23"/>
       <c r="O15" s="23"/>
       <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="23"/>
-      <c r="T15" s="23"/>
-      <c r="U15" s="23"/>
-      <c r="V15" s="23"/>
-      <c r="W15" s="23"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="24"/>
+      <c r="U15" s="24"/>
+      <c r="V15" s="24"/>
+      <c r="W15" s="23" t="n">
+        <v>3</v>
+      </c>
       <c r="X15" s="23"/>
-      <c r="Y15" s="23"/>
-      <c r="Z15" s="24"/>
-      <c r="AA15" s="24"/>
-      <c r="AB15" s="24"/>
-      <c r="AC15" s="24"/>
-      <c r="AD15" s="24"/>
-      <c r="AE15" s="24"/>
-      <c r="AF15" s="24"/>
-      <c r="AG15" s="24"/>
-      <c r="AH15" s="24"/>
+      <c r="Y15" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z15" s="25"/>
+      <c r="AA15" s="25"/>
+      <c r="AB15" s="25"/>
+      <c r="AC15" s="25"/>
+      <c r="AD15" s="25"/>
+      <c r="AE15" s="25"/>
+      <c r="AF15" s="25"/>
+      <c r="AG15" s="25"/>
+      <c r="AH15" s="25"/>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" s="17" t="n">
         <f aca="false">SUM(D16:AH16)</f>
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="23"/>
@@ -1376,33 +1418,41 @@
       <c r="M16" s="23"/>
       <c r="N16" s="23"/>
       <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="23"/>
-      <c r="T16" s="23"/>
-      <c r="U16" s="23"/>
-      <c r="V16" s="23"/>
-      <c r="W16" s="23"/>
-      <c r="X16" s="23"/>
-      <c r="Y16" s="23"/>
-      <c r="Z16" s="24"/>
-      <c r="AA16" s="24"/>
-      <c r="AB16" s="24"/>
-      <c r="AC16" s="24"/>
-      <c r="AD16" s="24"/>
-      <c r="AE16" s="24"/>
-      <c r="AF16" s="24"/>
-      <c r="AG16" s="24"/>
-      <c r="AH16" s="24"/>
+      <c r="P16" s="23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="24"/>
+      <c r="T16" s="24"/>
+      <c r="U16" s="24"/>
+      <c r="V16" s="24"/>
+      <c r="W16" s="23" t="n">
+        <v>4</v>
+      </c>
+      <c r="X16" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y16" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="25"/>
+      <c r="AA16" s="25"/>
+      <c r="AB16" s="25"/>
+      <c r="AC16" s="25"/>
+      <c r="AD16" s="25"/>
+      <c r="AE16" s="25"/>
+      <c r="AF16" s="25"/>
+      <c r="AG16" s="25"/>
+      <c r="AH16" s="25"/>
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="17" t="n">
         <f aca="false">SUM(D17:AH17)</f>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="23"/>
@@ -1421,30 +1471,40 @@
       <c r="N17" s="23" t="n">
         <v>4</v>
       </c>
-      <c r="O17" s="23"/>
+      <c r="O17" s="23" t="n">
+        <v>2</v>
+      </c>
       <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="23"/>
-      <c r="T17" s="23"/>
-      <c r="U17" s="23"/>
-      <c r="V17" s="23"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="24"/>
+      <c r="U17" s="24"/>
+      <c r="V17" s="24"/>
       <c r="W17" s="23"/>
-      <c r="X17" s="23"/>
-      <c r="Y17" s="23"/>
-      <c r="Z17" s="24"/>
-      <c r="AA17" s="24"/>
-      <c r="AB17" s="24"/>
-      <c r="AC17" s="24"/>
-      <c r="AD17" s="24"/>
-      <c r="AE17" s="24"/>
-      <c r="AF17" s="24"/>
-      <c r="AG17" s="24"/>
-      <c r="AH17" s="24"/>
+      <c r="X17" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y17" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="25"/>
+      <c r="AA17" s="25" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB17" s="25" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC17" s="25"/>
+      <c r="AD17" s="25"/>
+      <c r="AE17" s="25"/>
+      <c r="AF17" s="25"/>
+      <c r="AG17" s="25"/>
+      <c r="AH17" s="25"/>
     </row>
     <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C18" s="17" t="n">
         <f aca="false">SUM(D18:AH18)</f>
@@ -1463,45 +1523,51 @@
       <c r="N18" s="23"/>
       <c r="O18" s="23"/>
       <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
-      <c r="S18" s="23"/>
-      <c r="T18" s="23"/>
-      <c r="U18" s="23"/>
-      <c r="V18" s="23"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="24"/>
+      <c r="T18" s="24"/>
+      <c r="U18" s="24"/>
+      <c r="V18" s="24"/>
       <c r="W18" s="23"/>
       <c r="X18" s="23"/>
       <c r="Y18" s="23"/>
-      <c r="Z18" s="24"/>
-      <c r="AA18" s="24"/>
-      <c r="AB18" s="24"/>
-      <c r="AC18" s="24"/>
-      <c r="AD18" s="24"/>
-      <c r="AE18" s="24"/>
-      <c r="AF18" s="24"/>
-      <c r="AG18" s="24"/>
-      <c r="AH18" s="24"/>
-    </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z18" s="25"/>
+      <c r="AA18" s="25"/>
+      <c r="AB18" s="25"/>
+      <c r="AC18" s="25"/>
+      <c r="AD18" s="25"/>
+      <c r="AE18" s="25"/>
+      <c r="AF18" s="25"/>
+      <c r="AG18" s="25"/>
+      <c r="AH18" s="25"/>
+    </row>
+    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C19" s="17" t="n">
         <f aca="false">SUM(D19:AH19)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="23"/>
       <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
+      <c r="G19" s="23" t="n">
+        <v>1</v>
+      </c>
       <c r="H19" s="23"/>
       <c r="I19" s="23"/>
       <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
+      <c r="K19" s="23" t="n">
+        <v>1</v>
+      </c>
       <c r="L19" s="23"/>
       <c r="M19" s="23"/>
       <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
+      <c r="O19" s="23" t="n">
+        <v>1</v>
+      </c>
       <c r="P19" s="23"/>
       <c r="Q19" s="23"/>
       <c r="R19" s="23"/>
@@ -1512,19 +1578,25 @@
       <c r="W19" s="23"/>
       <c r="X19" s="23"/>
       <c r="Y19" s="23"/>
-      <c r="Z19" s="24"/>
-      <c r="AA19" s="24"/>
-      <c r="AB19" s="24"/>
-      <c r="AC19" s="24"/>
-      <c r="AD19" s="24"/>
-      <c r="AE19" s="24"/>
-      <c r="AF19" s="24"/>
-      <c r="AG19" s="24"/>
-      <c r="AH19" s="24"/>
+      <c r="Z19" s="25" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA19" s="25" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB19" s="25" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC19" s="25"/>
+      <c r="AD19" s="25"/>
+      <c r="AE19" s="25"/>
+      <c r="AF19" s="25"/>
+      <c r="AG19" s="25"/>
+      <c r="AH19" s="25"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C20" s="17" t="n">
         <f aca="false">SUM(D20:AH20)</f>
@@ -1552,15 +1624,15 @@
       <c r="W20" s="23"/>
       <c r="X20" s="23"/>
       <c r="Y20" s="23"/>
-      <c r="Z20" s="24"/>
-      <c r="AA20" s="24"/>
-      <c r="AB20" s="24"/>
-      <c r="AC20" s="24"/>
-      <c r="AD20" s="24"/>
-      <c r="AE20" s="24"/>
-      <c r="AF20" s="24"/>
-      <c r="AG20" s="24"/>
-      <c r="AH20" s="24"/>
+      <c r="Z20" s="25"/>
+      <c r="AA20" s="25"/>
+      <c r="AB20" s="25"/>
+      <c r="AC20" s="25"/>
+      <c r="AD20" s="25"/>
+      <c r="AE20" s="25"/>
+      <c r="AF20" s="25"/>
+      <c r="AG20" s="25"/>
+      <c r="AH20" s="25"/>
     </row>
     <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="21"/>
@@ -1590,15 +1662,15 @@
       <c r="W21" s="23"/>
       <c r="X21" s="23"/>
       <c r="Y21" s="23"/>
-      <c r="Z21" s="24"/>
-      <c r="AA21" s="24"/>
-      <c r="AB21" s="24"/>
-      <c r="AC21" s="24"/>
-      <c r="AD21" s="24"/>
-      <c r="AE21" s="24"/>
-      <c r="AF21" s="24"/>
-      <c r="AG21" s="24"/>
-      <c r="AH21" s="24"/>
+      <c r="Z21" s="25"/>
+      <c r="AA21" s="25"/>
+      <c r="AB21" s="25"/>
+      <c r="AC21" s="25"/>
+      <c r="AD21" s="25"/>
+      <c r="AE21" s="25"/>
+      <c r="AF21" s="25"/>
+      <c r="AG21" s="25"/>
+      <c r="AH21" s="25"/>
     </row>
     <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="21"/>
@@ -1628,15 +1700,15 @@
       <c r="W22" s="23"/>
       <c r="X22" s="23"/>
       <c r="Y22" s="23"/>
-      <c r="Z22" s="24"/>
-      <c r="AA22" s="24"/>
-      <c r="AB22" s="24"/>
-      <c r="AC22" s="24"/>
-      <c r="AD22" s="24"/>
-      <c r="AE22" s="24"/>
-      <c r="AF22" s="24"/>
-      <c r="AG22" s="24"/>
-      <c r="AH22" s="24"/>
+      <c r="Z22" s="25"/>
+      <c r="AA22" s="25"/>
+      <c r="AB22" s="25"/>
+      <c r="AC22" s="25"/>
+      <c r="AD22" s="25"/>
+      <c r="AE22" s="25"/>
+      <c r="AF22" s="25"/>
+      <c r="AG22" s="25"/>
+      <c r="AH22" s="25"/>
     </row>
     <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="21"/>
@@ -1666,15 +1738,15 @@
       <c r="W23" s="23"/>
       <c r="X23" s="23"/>
       <c r="Y23" s="23"/>
-      <c r="Z23" s="24"/>
-      <c r="AA23" s="24"/>
-      <c r="AB23" s="24"/>
-      <c r="AC23" s="24"/>
-      <c r="AD23" s="24"/>
-      <c r="AE23" s="24"/>
-      <c r="AF23" s="24"/>
-      <c r="AG23" s="24"/>
-      <c r="AH23" s="24"/>
+      <c r="Z23" s="25"/>
+      <c r="AA23" s="25"/>
+      <c r="AB23" s="25"/>
+      <c r="AC23" s="25"/>
+      <c r="AD23" s="25"/>
+      <c r="AE23" s="25"/>
+      <c r="AF23" s="25"/>
+      <c r="AG23" s="25"/>
+      <c r="AH23" s="25"/>
     </row>
     <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="21"/>
@@ -1704,15 +1776,15 @@
       <c r="W24" s="23"/>
       <c r="X24" s="23"/>
       <c r="Y24" s="23"/>
-      <c r="Z24" s="24"/>
-      <c r="AA24" s="24"/>
-      <c r="AB24" s="24"/>
-      <c r="AC24" s="24"/>
-      <c r="AD24" s="24"/>
-      <c r="AE24" s="24"/>
-      <c r="AF24" s="24"/>
-      <c r="AG24" s="24"/>
-      <c r="AH24" s="24"/>
+      <c r="Z24" s="25"/>
+      <c r="AA24" s="25"/>
+      <c r="AB24" s="25"/>
+      <c r="AC24" s="25"/>
+      <c r="AD24" s="25"/>
+      <c r="AE24" s="25"/>
+      <c r="AF24" s="25"/>
+      <c r="AG24" s="25"/>
+      <c r="AH24" s="25"/>
     </row>
     <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="21"/>
@@ -1742,15 +1814,15 @@
       <c r="W25" s="23"/>
       <c r="X25" s="23"/>
       <c r="Y25" s="23"/>
-      <c r="Z25" s="24"/>
-      <c r="AA25" s="24"/>
-      <c r="AB25" s="24"/>
-      <c r="AC25" s="24"/>
-      <c r="AD25" s="24"/>
-      <c r="AE25" s="24"/>
-      <c r="AF25" s="24"/>
-      <c r="AG25" s="24"/>
-      <c r="AH25" s="24"/>
+      <c r="Z25" s="25"/>
+      <c r="AA25" s="25"/>
+      <c r="AB25" s="25"/>
+      <c r="AC25" s="25"/>
+      <c r="AD25" s="25"/>
+      <c r="AE25" s="25"/>
+      <c r="AF25" s="25"/>
+      <c r="AG25" s="25"/>
+      <c r="AH25" s="25"/>
     </row>
     <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="21"/>
@@ -1780,15 +1852,15 @@
       <c r="W26" s="23"/>
       <c r="X26" s="23"/>
       <c r="Y26" s="23"/>
-      <c r="Z26" s="24"/>
-      <c r="AA26" s="24"/>
-      <c r="AB26" s="24"/>
-      <c r="AC26" s="24"/>
-      <c r="AD26" s="24"/>
-      <c r="AE26" s="24"/>
-      <c r="AF26" s="24"/>
-      <c r="AG26" s="24"/>
-      <c r="AH26" s="24"/>
+      <c r="Z26" s="25"/>
+      <c r="AA26" s="25"/>
+      <c r="AB26" s="25"/>
+      <c r="AC26" s="25"/>
+      <c r="AD26" s="25"/>
+      <c r="AE26" s="25"/>
+      <c r="AF26" s="25"/>
+      <c r="AG26" s="25"/>
+      <c r="AH26" s="25"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="21"/>
@@ -1818,15 +1890,15 @@
       <c r="W27" s="23"/>
       <c r="X27" s="23"/>
       <c r="Y27" s="23"/>
-      <c r="Z27" s="24"/>
-      <c r="AA27" s="24"/>
-      <c r="AB27" s="24"/>
-      <c r="AC27" s="24"/>
-      <c r="AD27" s="24"/>
-      <c r="AE27" s="24"/>
-      <c r="AF27" s="24"/>
-      <c r="AG27" s="24"/>
-      <c r="AH27" s="24"/>
+      <c r="Z27" s="25"/>
+      <c r="AA27" s="25"/>
+      <c r="AB27" s="25"/>
+      <c r="AC27" s="25"/>
+      <c r="AD27" s="25"/>
+      <c r="AE27" s="25"/>
+      <c r="AF27" s="25"/>
+      <c r="AG27" s="25"/>
+      <c r="AH27" s="25"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="21"/>
@@ -1856,15 +1928,15 @@
       <c r="W28" s="23"/>
       <c r="X28" s="23"/>
       <c r="Y28" s="23"/>
-      <c r="Z28" s="24"/>
-      <c r="AA28" s="24"/>
-      <c r="AB28" s="24"/>
-      <c r="AC28" s="24"/>
-      <c r="AD28" s="24"/>
-      <c r="AE28" s="24"/>
-      <c r="AF28" s="24"/>
-      <c r="AG28" s="24"/>
-      <c r="AH28" s="24"/>
+      <c r="Z28" s="25"/>
+      <c r="AA28" s="25"/>
+      <c r="AB28" s="25"/>
+      <c r="AC28" s="25"/>
+      <c r="AD28" s="25"/>
+      <c r="AE28" s="25"/>
+      <c r="AF28" s="25"/>
+      <c r="AG28" s="25"/>
+      <c r="AH28" s="25"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="21"/>
@@ -1894,15 +1966,15 @@
       <c r="W29" s="23"/>
       <c r="X29" s="23"/>
       <c r="Y29" s="23"/>
-      <c r="Z29" s="24"/>
-      <c r="AA29" s="24"/>
-      <c r="AB29" s="24"/>
-      <c r="AC29" s="24"/>
-      <c r="AD29" s="24"/>
-      <c r="AE29" s="24"/>
-      <c r="AF29" s="24"/>
-      <c r="AG29" s="24"/>
-      <c r="AH29" s="24"/>
+      <c r="Z29" s="25"/>
+      <c r="AA29" s="25"/>
+      <c r="AB29" s="25"/>
+      <c r="AC29" s="25"/>
+      <c r="AD29" s="25"/>
+      <c r="AE29" s="25"/>
+      <c r="AF29" s="25"/>
+      <c r="AG29" s="25"/>
+      <c r="AH29" s="25"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="21"/>
@@ -1932,15 +2004,15 @@
       <c r="W30" s="23"/>
       <c r="X30" s="23"/>
       <c r="Y30" s="23"/>
-      <c r="Z30" s="24"/>
-      <c r="AA30" s="24"/>
-      <c r="AB30" s="24"/>
-      <c r="AC30" s="24"/>
-      <c r="AD30" s="24"/>
-      <c r="AE30" s="24"/>
-      <c r="AF30" s="24"/>
-      <c r="AG30" s="24"/>
-      <c r="AH30" s="24"/>
+      <c r="Z30" s="25"/>
+      <c r="AA30" s="25"/>
+      <c r="AB30" s="25"/>
+      <c r="AC30" s="25"/>
+      <c r="AD30" s="25"/>
+      <c r="AE30" s="25"/>
+      <c r="AF30" s="25"/>
+      <c r="AG30" s="25"/>
+      <c r="AH30" s="25"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="21"/>
@@ -1970,15 +2042,15 @@
       <c r="W31" s="23"/>
       <c r="X31" s="23"/>
       <c r="Y31" s="23"/>
-      <c r="Z31" s="24"/>
-      <c r="AA31" s="24"/>
-      <c r="AB31" s="24"/>
-      <c r="AC31" s="24"/>
-      <c r="AD31" s="24"/>
-      <c r="AE31" s="24"/>
-      <c r="AF31" s="24"/>
-      <c r="AG31" s="24"/>
-      <c r="AH31" s="24"/>
+      <c r="Z31" s="25"/>
+      <c r="AA31" s="25"/>
+      <c r="AB31" s="25"/>
+      <c r="AC31" s="25"/>
+      <c r="AD31" s="25"/>
+      <c r="AE31" s="25"/>
+      <c r="AF31" s="25"/>
+      <c r="AG31" s="25"/>
+      <c r="AH31" s="25"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="21"/>
@@ -2008,18 +2080,18 @@
       <c r="W32" s="23"/>
       <c r="X32" s="23"/>
       <c r="Y32" s="23"/>
-      <c r="Z32" s="24"/>
-      <c r="AA32" s="24"/>
-      <c r="AB32" s="24"/>
-      <c r="AC32" s="24"/>
-      <c r="AD32" s="24"/>
-      <c r="AE32" s="24"/>
-      <c r="AF32" s="24"/>
-      <c r="AG32" s="24"/>
-      <c r="AH32" s="24"/>
+      <c r="Z32" s="25"/>
+      <c r="AA32" s="25"/>
+      <c r="AB32" s="25"/>
+      <c r="AC32" s="25"/>
+      <c r="AD32" s="25"/>
+      <c r="AE32" s="25"/>
+      <c r="AF32" s="25"/>
+      <c r="AG32" s="25"/>
+      <c r="AH32" s="25"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="25"/>
+      <c r="B33" s="26"/>
       <c r="C33" s="17" t="n">
         <f aca="false">SUM(D33:AH33)</f>
         <v>0</v>
@@ -2046,15 +2118,15 @@
       <c r="W33" s="23"/>
       <c r="X33" s="23"/>
       <c r="Y33" s="23"/>
-      <c r="Z33" s="24"/>
-      <c r="AA33" s="24"/>
-      <c r="AB33" s="24"/>
-      <c r="AC33" s="24"/>
-      <c r="AD33" s="24"/>
-      <c r="AE33" s="24"/>
-      <c r="AF33" s="24"/>
-      <c r="AG33" s="24"/>
-      <c r="AH33" s="24"/>
+      <c r="Z33" s="25"/>
+      <c r="AA33" s="25"/>
+      <c r="AB33" s="25"/>
+      <c r="AC33" s="25"/>
+      <c r="AD33" s="25"/>
+      <c r="AE33" s="25"/>
+      <c r="AF33" s="25"/>
+      <c r="AG33" s="25"/>
+      <c r="AH33" s="25"/>
     </row>
     <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="21"/>
@@ -2084,15 +2156,15 @@
       <c r="W34" s="23"/>
       <c r="X34" s="23"/>
       <c r="Y34" s="23"/>
-      <c r="Z34" s="24"/>
-      <c r="AA34" s="24"/>
-      <c r="AB34" s="24"/>
-      <c r="AC34" s="24"/>
-      <c r="AD34" s="24"/>
-      <c r="AE34" s="24"/>
-      <c r="AF34" s="24"/>
-      <c r="AG34" s="24"/>
-      <c r="AH34" s="24"/>
+      <c r="Z34" s="25"/>
+      <c r="AA34" s="25"/>
+      <c r="AB34" s="25"/>
+      <c r="AC34" s="25"/>
+      <c r="AD34" s="25"/>
+      <c r="AE34" s="25"/>
+      <c r="AF34" s="25"/>
+      <c r="AG34" s="25"/>
+      <c r="AH34" s="25"/>
     </row>
     <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="21"/>
@@ -2122,15 +2194,15 @@
       <c r="W35" s="23"/>
       <c r="X35" s="23"/>
       <c r="Y35" s="23"/>
-      <c r="Z35" s="24"/>
-      <c r="AA35" s="24"/>
-      <c r="AB35" s="24"/>
-      <c r="AC35" s="24"/>
-      <c r="AD35" s="24"/>
-      <c r="AE35" s="24"/>
-      <c r="AF35" s="24"/>
-      <c r="AG35" s="24"/>
-      <c r="AH35" s="24"/>
+      <c r="Z35" s="25"/>
+      <c r="AA35" s="25"/>
+      <c r="AB35" s="25"/>
+      <c r="AC35" s="25"/>
+      <c r="AD35" s="25"/>
+      <c r="AE35" s="25"/>
+      <c r="AF35" s="25"/>
+      <c r="AG35" s="25"/>
+      <c r="AH35" s="25"/>
     </row>
     <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="21"/>
@@ -2160,15 +2232,15 @@
       <c r="W36" s="23"/>
       <c r="X36" s="23"/>
       <c r="Y36" s="23"/>
-      <c r="Z36" s="24"/>
-      <c r="AA36" s="24"/>
-      <c r="AB36" s="24"/>
-      <c r="AC36" s="24"/>
-      <c r="AD36" s="24"/>
-      <c r="AE36" s="24"/>
-      <c r="AF36" s="24"/>
-      <c r="AG36" s="24"/>
-      <c r="AH36" s="24"/>
+      <c r="Z36" s="25"/>
+      <c r="AA36" s="25"/>
+      <c r="AB36" s="25"/>
+      <c r="AC36" s="25"/>
+      <c r="AD36" s="25"/>
+      <c r="AE36" s="25"/>
+      <c r="AF36" s="25"/>
+      <c r="AG36" s="25"/>
+      <c r="AH36" s="25"/>
     </row>
     <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="21"/>
@@ -2198,15 +2270,15 @@
       <c r="W37" s="23"/>
       <c r="X37" s="23"/>
       <c r="Y37" s="23"/>
-      <c r="Z37" s="24"/>
-      <c r="AA37" s="24"/>
-      <c r="AB37" s="24"/>
-      <c r="AC37" s="24"/>
-      <c r="AD37" s="24"/>
-      <c r="AE37" s="24"/>
-      <c r="AF37" s="24"/>
-      <c r="AG37" s="24"/>
-      <c r="AH37" s="24"/>
+      <c r="Z37" s="25"/>
+      <c r="AA37" s="25"/>
+      <c r="AB37" s="25"/>
+      <c r="AC37" s="25"/>
+      <c r="AD37" s="25"/>
+      <c r="AE37" s="25"/>
+      <c r="AF37" s="25"/>
+      <c r="AG37" s="25"/>
+      <c r="AH37" s="25"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="21"/>
@@ -2236,15 +2308,15 @@
       <c r="W38" s="23"/>
       <c r="X38" s="23"/>
       <c r="Y38" s="23"/>
-      <c r="Z38" s="24"/>
-      <c r="AA38" s="24"/>
-      <c r="AB38" s="24"/>
-      <c r="AC38" s="24"/>
-      <c r="AD38" s="24"/>
-      <c r="AE38" s="24"/>
-      <c r="AF38" s="24"/>
-      <c r="AG38" s="24"/>
-      <c r="AH38" s="24"/>
+      <c r="Z38" s="25"/>
+      <c r="AA38" s="25"/>
+      <c r="AB38" s="25"/>
+      <c r="AC38" s="25"/>
+      <c r="AD38" s="25"/>
+      <c r="AE38" s="25"/>
+      <c r="AF38" s="25"/>
+      <c r="AG38" s="25"/>
+      <c r="AH38" s="25"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="21"/>
@@ -2274,15 +2346,15 @@
       <c r="W39" s="23"/>
       <c r="X39" s="23"/>
       <c r="Y39" s="23"/>
-      <c r="Z39" s="24"/>
-      <c r="AA39" s="24"/>
-      <c r="AB39" s="24"/>
-      <c r="AC39" s="24"/>
-      <c r="AD39" s="24"/>
-      <c r="AE39" s="24"/>
-      <c r="AF39" s="24"/>
-      <c r="AG39" s="24"/>
-      <c r="AH39" s="24"/>
+      <c r="Z39" s="25"/>
+      <c r="AA39" s="25"/>
+      <c r="AB39" s="25"/>
+      <c r="AC39" s="25"/>
+      <c r="AD39" s="25"/>
+      <c r="AE39" s="25"/>
+      <c r="AF39" s="25"/>
+      <c r="AG39" s="25"/>
+      <c r="AH39" s="25"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="21"/>
@@ -2312,15 +2384,15 @@
       <c r="W40" s="23"/>
       <c r="X40" s="23"/>
       <c r="Y40" s="23"/>
-      <c r="Z40" s="24"/>
-      <c r="AA40" s="24"/>
-      <c r="AB40" s="24"/>
-      <c r="AC40" s="24"/>
-      <c r="AD40" s="24"/>
-      <c r="AE40" s="24"/>
-      <c r="AF40" s="24"/>
-      <c r="AG40" s="24"/>
-      <c r="AH40" s="24"/>
+      <c r="Z40" s="25"/>
+      <c r="AA40" s="25"/>
+      <c r="AB40" s="25"/>
+      <c r="AC40" s="25"/>
+      <c r="AD40" s="25"/>
+      <c r="AE40" s="25"/>
+      <c r="AF40" s="25"/>
+      <c r="AG40" s="25"/>
+      <c r="AH40" s="25"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="21"/>
@@ -2350,15 +2422,15 @@
       <c r="W41" s="23"/>
       <c r="X41" s="23"/>
       <c r="Y41" s="23"/>
-      <c r="Z41" s="24"/>
-      <c r="AA41" s="24"/>
-      <c r="AB41" s="24"/>
-      <c r="AC41" s="24"/>
-      <c r="AD41" s="24"/>
-      <c r="AE41" s="24"/>
-      <c r="AF41" s="24"/>
-      <c r="AG41" s="24"/>
-      <c r="AH41" s="24"/>
+      <c r="Z41" s="25"/>
+      <c r="AA41" s="25"/>
+      <c r="AB41" s="25"/>
+      <c r="AC41" s="25"/>
+      <c r="AD41" s="25"/>
+      <c r="AE41" s="25"/>
+      <c r="AF41" s="25"/>
+      <c r="AG41" s="25"/>
+      <c r="AH41" s="25"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="21"/>
@@ -2388,15 +2460,15 @@
       <c r="W42" s="23"/>
       <c r="X42" s="23"/>
       <c r="Y42" s="23"/>
-      <c r="Z42" s="24"/>
-      <c r="AA42" s="24"/>
-      <c r="AB42" s="24"/>
-      <c r="AC42" s="24"/>
-      <c r="AD42" s="24"/>
-      <c r="AE42" s="24"/>
-      <c r="AF42" s="24"/>
-      <c r="AG42" s="24"/>
-      <c r="AH42" s="24"/>
+      <c r="Z42" s="25"/>
+      <c r="AA42" s="25"/>
+      <c r="AB42" s="25"/>
+      <c r="AC42" s="25"/>
+      <c r="AD42" s="25"/>
+      <c r="AE42" s="25"/>
+      <c r="AF42" s="25"/>
+      <c r="AG42" s="25"/>
+      <c r="AH42" s="25"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="21"/>
@@ -2426,62 +2498,63 @@
       <c r="W43" s="23"/>
       <c r="X43" s="23"/>
       <c r="Y43" s="23"/>
-      <c r="Z43" s="24"/>
-      <c r="AA43" s="24"/>
-      <c r="AB43" s="24"/>
-      <c r="AC43" s="24"/>
-      <c r="AD43" s="24"/>
-      <c r="AE43" s="24"/>
-      <c r="AF43" s="24"/>
-      <c r="AG43" s="24"/>
-      <c r="AH43" s="24"/>
+      <c r="Z43" s="25"/>
+      <c r="AA43" s="25"/>
+      <c r="AB43" s="25"/>
+      <c r="AC43" s="25"/>
+      <c r="AD43" s="25"/>
+      <c r="AE43" s="25"/>
+      <c r="AF43" s="25"/>
+      <c r="AG43" s="25"/>
+      <c r="AH43" s="25"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="25"/>
+      <c r="B44" s="26"/>
       <c r="C44" s="17" t="n">
         <f aca="false">SUM(D44:AH44)</f>
         <v>0</v>
       </c>
-      <c r="D44" s="26"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="27"/>
-      <c r="L44" s="27"/>
-      <c r="M44" s="27"/>
-      <c r="N44" s="27"/>
-      <c r="O44" s="27"/>
-      <c r="P44" s="27"/>
-      <c r="Q44" s="27"/>
-      <c r="R44" s="27"/>
-      <c r="S44" s="27"/>
-      <c r="T44" s="27"/>
-      <c r="U44" s="27"/>
-      <c r="V44" s="27"/>
-      <c r="W44" s="27"/>
-      <c r="X44" s="27"/>
-      <c r="Y44" s="27"/>
-      <c r="Z44" s="28"/>
-      <c r="AA44" s="28"/>
-      <c r="AB44" s="28"/>
-      <c r="AC44" s="28"/>
-      <c r="AD44" s="28"/>
-      <c r="AE44" s="28"/>
-      <c r="AF44" s="28"/>
-      <c r="AG44" s="28"/>
-      <c r="AH44" s="28"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="28"/>
+      <c r="K44" s="28"/>
+      <c r="L44" s="28"/>
+      <c r="M44" s="28"/>
+      <c r="N44" s="28"/>
+      <c r="O44" s="28"/>
+      <c r="P44" s="28"/>
+      <c r="Q44" s="28"/>
+      <c r="R44" s="28"/>
+      <c r="S44" s="28"/>
+      <c r="T44" s="28"/>
+      <c r="U44" s="28"/>
+      <c r="V44" s="28"/>
+      <c r="W44" s="28"/>
+      <c r="X44" s="28"/>
+      <c r="Y44" s="28"/>
+      <c r="Z44" s="29"/>
+      <c r="AA44" s="29"/>
+      <c r="AB44" s="29"/>
+      <c r="AC44" s="29"/>
+      <c r="AD44" s="29"/>
+      <c r="AE44" s="29"/>
+      <c r="AF44" s="29"/>
+      <c r="AG44" s="29"/>
+      <c r="AH44" s="29"/>
     </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
+    <mergeCell ref="Q11:V18"/>
   </mergeCells>
   <conditionalFormatting sqref="D11:P16 D19:P27 D17:H18 J17:P18">
     <cfRule type="colorScale" priority="2">
@@ -2522,7 +2595,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{38CC9A18-194F-409A-B186-FD721095DE1F}</x14:id>
+          <x14:id>{A8941D35-DBC9-4490-BB64-E77716C5CC39}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3166,7 +3239,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{FA758418-2CBB-4DD7-9B9C-72B810B662F9}</x14:id>
+          <x14:id>{24D41A5D-8512-4A17-AE76-C190D21BC77B}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3180,7 +3253,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{EE8BEB1E-81BB-4F74-8A8A-469CD536E574}</x14:id>
+          <x14:id>{13F7FA95-84C9-46CC-B820-D3904E6ACD74}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3204,14 +3277,14 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{F040ADC0-EB35-4C1C-BB47-4BBDE9807647}</x14:id>
+          <x14:id>{F039F76E-F558-4194-9385-B1D04E61D7C0}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3220,7 +3293,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{38CC9A18-194F-409A-B186-FD721095DE1F}">
+          <x14:cfRule type="dataBar" id="{A8941D35-DBC9-4490-BB64-E77716C5CC39}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="true">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3231,7 +3304,7 @@
           <xm:sqref>C10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{FA758418-2CBB-4DD7-9B9C-72B810B662F9}">
+          <x14:cfRule type="dataBar" id="{24D41A5D-8512-4A17-AE76-C190D21BC77B}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="true">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3242,7 +3315,7 @@
           <xm:sqref>C11:C44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{EE8BEB1E-81BB-4F74-8A8A-469CD536E574}">
+          <x14:cfRule type="dataBar" id="{13F7FA95-84C9-46CC-B820-D3904E6ACD74}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3253,7 +3326,7 @@
           <xm:sqref>C10:C44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{F040ADC0-EB35-4C1C-BB47-4BBDE9807647}">
+          <x14:cfRule type="dataBar" id="{F039F76E-F558-4194-9385-B1D04E61D7C0}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
